--- a/TheFame/case/case.xlsx
+++ b/TheFame/case/case.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9924" windowWidth="22943"/>
   </bookViews>
   <sheets>
-    <sheet name="美住登陆" sheetId="1" r:id="rId1"/>
-    <sheet name="添加会员" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="美住登陆" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="添加会员" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>mobile</t>
   </si>
@@ -92,199 +92,205 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
+  <fonts count="27">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.25"/>
-      <color rgb="FFFD971F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <i val="1"/>
+      <color rgb="FFFD971F"/>
+      <sz val="11.25"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <sz val="11.5"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00FF00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.25"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <i val="1"/>
+      <sz val="11.25"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -584,231 +590,228 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="23" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="9" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="17" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="17" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1097,24 +1100,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.4444444444444" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="19.4444444444444"/>
+    <col customWidth="1" max="2" min="2" style="1" width="16.4444444444444"/>
+    <col customWidth="1" max="3" min="3" style="1" width="28"/>
+    <col customWidth="1" max="4" min="4" style="1" width="46.6666666666667"/>
+    <col customWidth="1" max="5" min="5" style="1" width="32.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:5">
+    <row customHeight="1" ht="15" r="1" s="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1150,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1161,7 +1167,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1178,39 +1184,41 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="52.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.8888888888889" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="15"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.8888888888889"/>
+    <col customWidth="1" max="3" min="3" style="1" width="20.3333333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13.8888888888889"/>
+    <col customWidth="1" max="9" min="9" style="1" width="52.5555555555556"/>
+    <col customWidth="1" max="10" min="10" style="1" width="30.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:10">
+    <row customHeight="1" ht="30" r="1" s="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1242,26 +1250,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
-      <c r="A2">
+    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
+      <c r="A2" t="n">
         <v>277</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>18802094078</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1270,30 +1278,30 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
-      <c r="A3">
+    <row customHeight="1" ht="15" r="3" s="1" spans="1:10">
+      <c r="A3" t="n">
         <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>13302024078</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1302,30 +1310,31 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/TheFame/case/case.xlsx
+++ b/TheFame/case/case.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8952"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8952" windowWidth="20400"/>
   </bookViews>
   <sheets>
-    <sheet name="美住登陆" sheetId="1" r:id="rId1"/>
-    <sheet name="添加会员" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="美住登陆" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="添加会员" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>mobile</t>
   </si>
@@ -48,6 +48,12 @@
     <t>{"data":"success","info":"成功","status":200}</t>
   </si>
   <si>
+    <t>{"data":"","info":"用户不存在","status":100}</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>111111b</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
   </si>
   <si>
     <t>{"data":"","info":"密码不正确","status":101}</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>hotel</t>
@@ -92,197 +101,203 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
+  <fonts count="27">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.25"/>
-      <color rgb="FFFD971F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <i val="1"/>
+      <color rgb="FFFD971F"/>
+      <sz val="11.25"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <sz val="11.5"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.25"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <i val="1"/>
+      <sz val="11.25"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -582,236 +597,233 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="23" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1100,24 +1112,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.4444444444444" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="19.4444444444444"/>
+    <col customWidth="1" max="2" min="2" style="1" width="16.4444444444444"/>
+    <col customWidth="1" max="3" min="3" style="1" width="28"/>
+    <col customWidth="1" max="4" min="4" style="1" width="46.6666666666667"/>
+    <col customWidth="1" max="5" min="5" style="1" width="32.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row customHeight="1" ht="15" r="1" s="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1150,24 +1165,34 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1175,65 +1200,72 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="52.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.8888888888889" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="15"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.8888888888889"/>
+    <col customWidth="1" max="3" min="3" style="1" width="20.3333333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13.8888888888889"/>
+    <col customWidth="1" max="9" min="9" style="1" width="52.5555555555556"/>
+    <col customWidth="1" max="10" min="10" style="1" width="30.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:11">
+    <row customHeight="1" ht="30" r="1" s="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1245,86 +1277,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:10">
-      <c r="A2">
+    <row customHeight="1" ht="15" r="2" s="1" spans="1:11">
+      <c r="A2" t="n">
         <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="C2" t="n">
         <v>18802094078</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:10">
-      <c r="A3">
+    <row customHeight="1" ht="15" r="3" s="1" spans="1:11">
+      <c r="A3" t="n">
         <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
         <v>13302024078</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>86</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/TheFame/case/case.xlsx
+++ b/TheFame/case/case.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8952" activeTab="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8952" windowWidth="20400"/>
   </bookViews>
   <sheets>
-    <sheet name="美住登陆" sheetId="1" r:id="rId1"/>
-    <sheet name="添加会员" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="美住登陆" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="添加会员" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>mobile</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>{"data":"","info":"用户不存在","status":100}</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>111111b</t>
@@ -92,211 +95,214 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="27">
-    <font>
-      <sz val="11"/>
+  <fonts count="28">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.25"/>
-      <color rgb="FFFD971F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <i val="1"/>
+      <color rgb="FFFD971F"/>
+      <sz val="11.25"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <sz val="11.5"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00FF00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.25"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <i val="1"/>
+      <sz val="11.25"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -596,238 +602,234 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="11" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="21" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="21" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="29" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1116,24 +1118,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.4444444444444" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="19.4444444444444"/>
+    <col customWidth="1" max="2" min="2" style="1" width="16.4444444444444"/>
+    <col customWidth="1" max="3" min="3" style="1" width="28"/>
+    <col customWidth="1" max="4" min="4" style="1" width="46.6666666666667"/>
+    <col customWidth="1" max="5" min="5" style="1" width="32.4444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6">
+    <row customHeight="1" ht="15" r="1" s="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,24 +1171,32 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
@@ -1193,66 +1206,72 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="52.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.8888888888889" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="15"/>
+    <col customWidth="1" max="2" min="2" style="1" width="10.8888888888889"/>
+    <col customWidth="1" max="3" min="3" style="1" width="20.3333333333333"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13.8888888888889"/>
+    <col customWidth="1" max="9" min="9" style="1" width="52.5555555555556"/>
+    <col customWidth="1" max="10" min="10" style="1" width="30.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:11">
+    <row customHeight="1" ht="30" r="1" s="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1264,88 +1283,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:11">
-      <c r="A2">
+    <row customHeight="1" ht="15" r="2" s="1" spans="1:11">
+      <c r="A2" t="n">
         <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
+        <v>21</v>
+      </c>
+      <c r="C2" t="n">
         <v>18802094078</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="1" spans="1:11">
+      <c r="A3" t="n">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C3" t="n">
+        <v>13302024078</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:11">
-      <c r="A3">
-        <v>277</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>13302024078</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>86</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>